--- a/Iteration3-Documents/Team_3_UCID_Itteration3.xlsx
+++ b/Iteration3-Documents/Team_3_UCID_Itteration3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hediemoradi/Repos/SE-1-Project/Iteration3-Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44E52F93-3EB3-B541-A3BB-0F9617D07792}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1B4153-1E57-BC44-A955-7E6F5BEE6E71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7960" yWindow="1460" windowWidth="23260" windowHeight="12580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5540" yWindow="1460" windowWidth="23260" windowHeight="12580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -462,30 +462,6 @@
       </rPr>
       <t xml:space="preserve"> And login screen will be presented to the user. 
 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Application LogIn screen. (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">user can navigate back to Login screen </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF262626"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>)</t>
     </r>
   </si>
   <si>
@@ -1286,6 +1262,30 @@
   </si>
   <si>
     <t xml:space="preserve">This function is performed after checkout. If the payment methods is not added in profile, user can use go to modify/add card button and be navigated to profile to add payment information. If the card information has been already added, we will present the user with the card info except CVV to be entered for varification manually. Then user can complete his purchase. Order conformation number will be given to the user after the payment is done. </t>
+  </si>
+  <si>
+    <r>
+      <t>Application LogIn screen. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>user will be navigated back to Login screen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2140,8 +2140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="25" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
@@ -2159,7 +2159,7 @@
     <col min="16" max="1025" width="10.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" s="51" customFormat="1" ht="24">
+    <row r="1" spans="1:1025" s="51" customFormat="1" ht="48">
       <c r="A1" s="52"/>
       <c r="B1" s="53" t="s">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>41</v>
       </c>
       <c r="H3" s="62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:1025" ht="114">
@@ -3266,7 +3266,7 @@
         <v>72</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F4" s="27" t="s">
         <v>21</v>
@@ -3275,7 +3275,7 @@
         <v>73</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:1025" ht="95">
@@ -3298,7 +3298,7 @@
         <v>15</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="H5" s="37" t="s">
         <v>87</v>
@@ -3321,13 +3321,13 @@
         <v>8</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G6" s="32" t="s">
         <v>48</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:1025" ht="285">
@@ -3347,13 +3347,13 @@
         <v>19</v>
       </c>
       <c r="F7" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="32" t="s">
-        <v>92</v>
-      </c>
       <c r="H7" s="37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:1025" s="6" customFormat="1" ht="152">
@@ -3373,13 +3373,13 @@
         <v>25</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G8" s="32" t="s">
         <v>50</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -4416,13 +4416,13 @@
         <v>19</v>
       </c>
       <c r="F9" s="59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -5462,10 +5462,10 @@
         <v>21</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -6496,16 +6496,16 @@
         <v>23</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H11" s="38" t="s">
         <v>26</v>
@@ -7548,10 +7548,10 @@
         <v>79</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -8576,13 +8576,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="66" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" s="45" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>84</v>
@@ -8591,10 +8591,10 @@
         <v>21</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H13" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -9631,13 +9631,13 @@
         <v>45</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H14" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -10668,7 +10668,7 @@
         <v>22</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E15" s="24" t="s">
         <v>56</v>
@@ -10680,7 +10680,7 @@
         <v>58</v>
       </c>
       <c r="H15" s="60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -11711,7 +11711,7 @@
         <v>22</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E16" s="24" t="s">
         <v>21</v>
@@ -11723,7 +11723,7 @@
         <v>64</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -12748,7 +12748,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C17" s="46" t="s">
         <v>22</v>
@@ -12760,13 +12760,13 @@
         <v>47</v>
       </c>
       <c r="F17" s="64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G17" s="32" t="s">
         <v>78</v>
       </c>
       <c r="H17" s="63" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -13803,13 +13803,13 @@
         <v>21</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G18" s="32" t="s">
         <v>77</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -14846,13 +14846,13 @@
         <v>21</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G19" s="32" t="s">
         <v>83</v>
       </c>
       <c r="H19" s="39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -15892,10 +15892,10 @@
         <v>70</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H20" s="60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -16935,7 +16935,7 @@
         <v>70</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H21" s="39" t="s">
         <v>71</v>
